--- a/HLS_man/COP19/COP19_man_usa.xlsx
+++ b/HLS_man/COP19/COP19_man_usa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF38C2B-D742-4851-928B-58C7AA7AC891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE4486E-2479-4AFB-9025-4BA122CDBC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -638,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HLS_man/COP19/COP19_man_usa.xlsx
+++ b/HLS_man/COP19/COP19_man_usa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE4486E-2479-4AFB-9025-4BA122CDBC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A1FBD-7044-414B-8720-98C8B94EC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>COP19_usa</t>
   </si>
@@ -193,51 +193,12 @@
     <t>global</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>financial resources</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>libertarian</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t>policy target</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>policy target defined as sufficientarian</t>
-  </si>
-  <si>
-    <t>present, nearby future</t>
-  </si>
-  <si>
     <t xml:space="preserve">egalitarian </t>
   </si>
   <si>
-    <t>national, multinational(developed countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coordinated strategies to meet finance goals and them to reach their contributions. Following from the idea of we all having to contribute </t>
-  </si>
-  <si>
-    <t>moral responsibility, policy target</t>
-  </si>
-  <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
@@ -247,25 +208,34 @@
     <t>n.a.</t>
   </si>
   <si>
-    <t>participation of all countries</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, other(CBDR)</t>
-  </si>
-  <si>
-    <t>prioritarian, libertarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indication of CBDR, prioritarian, libertarian in notion of self differentiation. </t>
-  </si>
-  <si>
-    <t>differentiating responsibility and freedom to determine who has what obligations and responsiblities.</t>
-  </si>
-  <si>
     <t xml:space="preserve">moral responsibility </t>
   </si>
   <si>
-    <t>mutual responsibilities to eachother, indicating that there is an egalitarian idea of responsibility. "we all have a responsibility"</t>
+    <t xml:space="preserve">Prescribes the moral judgement that all countries should participate in the new agreement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need of accounting for self-differentiation and accounting for CBDR. </t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libertarian </t>
+  </si>
+  <si>
+    <t>Value judgement on the need to have evolving categories to determine responsiblities. No emphasis on specific distribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement of the need for cooperation in light of mutual responsibility. </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, other(complementary initiatives), mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement on the need for cooperation to take on action to include more initiatives. No specific distribution. </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, CBDR, self-differentiation, mitigation</t>
   </si>
 </sst>
 </file>
@@ -637,21 +607,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,155 +650,119 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -836,25 +770,25 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -862,41 +796,41 @@
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -904,73 +838,91 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -978,22 +930,22 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/HLS_man/COP19/COP19_man_usa.xlsx
+++ b/HLS_man/COP19/COP19_man_usa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A1FBD-7044-414B-8720-98C8B94EC9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97A067-75C9-4473-AF19-2B354CF544A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27015" yWindow="1830" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>COP19_usa</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -145,12 +139,6 @@
     <t>There are options here.</t>
   </si>
   <si>
-    <t>If those categories are to be
-operational in character  in other words, determine who has what kind
-of obligations and responsibilities  they must evolve to reflect changing
-circumstances.</t>
-  </si>
-  <si>
     <t>Alternatively, they can remain unchanged if they are not
 operational.</t>
   </si>
@@ -187,55 +175,61 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t xml:space="preserve">egalitarian </t>
   </si>
   <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t xml:space="preserve">moral responsibility </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescribes the moral judgement that all countries should participate in the new agreement. </t>
   </si>
   <si>
-    <t xml:space="preserve">Moral judgement on the need of accounting for self-differentiation and accounting for CBDR. </t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
     <t xml:space="preserve">libertarian </t>
   </si>
   <si>
-    <t>Value judgement on the need to have evolving categories to determine responsiblities. No emphasis on specific distribution.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moral judgement of the need for cooperation in light of mutual responsibility. </t>
   </si>
   <si>
-    <t>new UNFCCC policy, other(complementary initiatives), mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statement on the need for cooperation to take on action to include more initiatives. No specific distribution. </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, CBDR, self-differentiation, mitigation</t>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>If those categories are to be
+operational in character , in other words, determine who has what kind
+of obligations and responsibilities,  they must evolve to reflect changing
+circumstances.</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the outline of a new agreement, highlighting self differentiation and CBDR, motivated by the benefit for all. </t>
+  </si>
+  <si>
+    <t>Prescribing the need to go against existing categories, in favour of self-differentiation, thus freedom. Does not specify the shape of that distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the need to have evolving categories to determine responsiblities. No specific motivational principle highlighted. </t>
   </si>
 </sst>
 </file>
@@ -605,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,12 +610,12 @@
     <col min="1" max="1" width="42" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,323 +623,305 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
+      <c r="B27">
+        <v>2</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
